--- a/results/I3_N5_M3_T30_C100_DepCentral_s0_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1842.243449249511</v>
+        <v>1818.718352253817</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.77660271490709</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.861670779827751</v>
+        <v>7.908099007898997</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.198517314426967</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1357.840000000005</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.29</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -923,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -934,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -984,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.386858569987037</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.163074147185014</v>
+        <v>15.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.37739353073907</v>
+        <v>4.798343757406283</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>2.420950226667209</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27.07084158034161</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.61314143001296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.49989205841819</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.83692585281499</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1100,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1114,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1128,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1142,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1156,10 +1101,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1170,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1184,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1198,13 +1143,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1212,13 +1157,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1232,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1246,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1260,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1274,9 +1219,23 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1379,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1390,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1401,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -1412,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -1434,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
@@ -1445,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1456,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -1467,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
@@ -1478,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
@@ -1489,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.0599999999993</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1500,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999993</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1511,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999993</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -1522,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999993</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -1533,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999994</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -1544,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1555,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1566,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1577,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1588,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1599,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>123.0900000000004</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1610,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>129.0600000000004</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
@@ -1621,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>132.8750000000004</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
@@ -1632,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>138.7450000000004</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -1643,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>134.35</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
@@ -1654,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>123.0900000000004</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
@@ -1665,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>129.0600000000004</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
@@ -1676,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>132.8750000000004</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -1687,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>138.7450000000004</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
@@ -1698,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.35</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37">
@@ -1709,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1731,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1742,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1753,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1764,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>101.3750000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1775,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>103.0400000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1786,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>103.9250000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1797,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>105.4350000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1808,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>105.7050000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>23.09000000000043</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -1866,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>29.06000000000043</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -1877,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>32.87500000000043</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1888,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>38.74500000000043</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -1899,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>34.35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1910,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0599999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1921,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.43499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1932,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1943,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.83999999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1954,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1965,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.375000000000796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1976,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3.040000000000802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1987,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3.925000000000807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1998,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.435000000000798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2009,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.705000000000794</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2067,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2078,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2089,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2100,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2111,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2122,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2133,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2144,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2155,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2166,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2177,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2188,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2199,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2210,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2221,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2232,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -2243,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2254,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2265,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2276,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2287,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2298,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2309,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2320,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2372,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2383,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2394,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2405,7 +2364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2416,7 +2375,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2427,7 +2386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2438,7 +2397,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2449,7 +2408,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2460,7 +2419,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2471,7 +2430,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2482,10 +2441,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2493,10 +2452,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2504,10 +2463,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2518,53 +2477,9 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
